--- a/Excel/Tablas dinamicas.xlsx
+++ b/Excel/Tablas dinamicas.xlsx
@@ -2,23 +2,24 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GIANPIER\Desktop\Apuntes\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B4795F-8F90-4F00-8BDA-2EAE8D99C046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B0B30D-4B74-4B81-ADC5-3293FDE25E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" activeTab="1" xr2:uid="{ECCD99A6-C1F2-4B24-9AC6-3B5CFABE24CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset crudo" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Listar" sheetId="3" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2125" uniqueCount="627">
   <si>
     <t>C0001</t>
   </si>
@@ -1983,76 +1984,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="d/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3835,7 +3796,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5DE681E2-A346-4643-8FC5-EBFEC5F7EA6F}" name="TablaDinámica1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5DE681E2-A346-4643-8FC5-EBFEC5F7EA6F}" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="K4:K22" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField showAll="0"/>
@@ -4557,6 +4518,24 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CDCDE145-5025-4903-BE1F-267F60F90028}" name="Tabla1" displayName="Tabla1" ref="A2:I101" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A2:I101" xr:uid="{CDCDE145-5025-4903-BE1F-267F60F90028}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{08E3A4EB-4650-41ED-A517-D513EAC82FC1}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{9277A6D7-BC7C-4A36-9851-6770E0BE3513}" name="Nombre completo"/>
+    <tableColumn id="3" xr3:uid="{6045F832-C226-4C09-987E-0E417C0F60C5}" name="Fecha de nacimiento" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{FDEB07D8-4225-4326-8B28-92562C68ADC7}" name="Dirección"/>
+    <tableColumn id="5" xr3:uid="{FCE4BDA9-CDBD-4BA3-8605-A4EF1F96D4A7}" name="Localidad y Código postal"/>
+    <tableColumn id="6" xr3:uid="{F07F4D84-C20F-45C0-80A8-84F9F3FD8765}" name="Teléfono"/>
+    <tableColumn id="7" xr3:uid="{56B13DD2-D712-495D-B4DF-CCD0E67FB5B6}" name="Correo electrónico"/>
+    <tableColumn id="8" xr3:uid="{5521C19C-64A3-42BC-AE21-750401DB0F03}" name="Fecha de alta" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{ACCC39FC-6847-48FE-B585-3BC29FAC5B38}" name="Grupo de clientes" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -4877,7 +4856,7 @@
   <dimension ref="A2:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.0703125" defaultRowHeight="14.15"/>
@@ -7799,10 +7778,2939 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A56C08C-735B-4222-8F34-F2070863FC4C}">
+  <dimension ref="A2:I101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.0703125" defaultRowHeight="14.15"/>
+  <cols>
+    <col min="1" max="1" width="6.0703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.0703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.78515625" customWidth="1"/>
+    <col min="6" max="6" width="13.0703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9">
+      <c r="A2" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>31024</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>40927.605914351851</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1">
+        <v>31636</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="2">
+        <v>38433.654305555552</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1">
+        <v>32979</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="2">
+        <v>39340.125821759262</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1">
+        <v>35401</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="2">
+        <v>40884.640856481485</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="1">
+        <v>30816</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="2">
+        <v>39627.290347222224</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="1">
+        <v>31885</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="2">
+        <v>39564.845960648148</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="1">
+        <v>33204</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="2">
+        <v>43746.669942129629</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="1">
+        <v>29651</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="2">
+        <v>40041.359224537038</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="1">
+        <v>29339</v>
+      </c>
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="2">
+        <v>41279.909618055557</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="1">
+        <v>31781</v>
+      </c>
+      <c r="D12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="2">
+        <v>39445.145254629628</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="1">
+        <v>33211</v>
+      </c>
+      <c r="D13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="2">
+        <v>41513.763252314813</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="1">
+        <v>28418</v>
+      </c>
+      <c r="D14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" s="2">
+        <v>40963.031921296293</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="1">
+        <v>36577</v>
+      </c>
+      <c r="D15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" s="2">
+        <v>41997.460277777776</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="1">
+        <v>36296</v>
+      </c>
+      <c r="D16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="2">
+        <v>42672.280694444446</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="1">
+        <v>34406</v>
+      </c>
+      <c r="D17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" t="s">
+        <v>94</v>
+      </c>
+      <c r="H17" s="2">
+        <v>39178.261030092595</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="1">
+        <v>29329</v>
+      </c>
+      <c r="D18" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" t="s">
+        <v>99</v>
+      </c>
+      <c r="G18" t="s">
+        <v>100</v>
+      </c>
+      <c r="H18" s="2">
+        <v>43779.048159722224</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="1">
+        <v>29283</v>
+      </c>
+      <c r="D19" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" t="s">
+        <v>106</v>
+      </c>
+      <c r="H19" s="2">
+        <v>42753.587488425925</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" s="1">
+        <v>29680</v>
+      </c>
+      <c r="D20" t="s">
+        <v>109</v>
+      </c>
+      <c r="E20" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" t="s">
+        <v>111</v>
+      </c>
+      <c r="G20" t="s">
+        <v>112</v>
+      </c>
+      <c r="H20" s="2">
+        <v>40310.165034722224</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="1">
+        <v>32306</v>
+      </c>
+      <c r="D21" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" t="s">
+        <v>117</v>
+      </c>
+      <c r="G21" t="s">
+        <v>118</v>
+      </c>
+      <c r="H21" s="2">
+        <v>40963.318784722222</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="1">
+        <v>34355</v>
+      </c>
+      <c r="D22" t="s">
+        <v>121</v>
+      </c>
+      <c r="E22" t="s">
+        <v>122</v>
+      </c>
+      <c r="F22" t="s">
+        <v>123</v>
+      </c>
+      <c r="G22" t="s">
+        <v>124</v>
+      </c>
+      <c r="H22" s="2">
+        <v>42506.381319444445</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>125</v>
+      </c>
+      <c r="B23" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" s="1">
+        <v>29037</v>
+      </c>
+      <c r="D23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23" t="s">
+        <v>128</v>
+      </c>
+      <c r="F23" t="s">
+        <v>129</v>
+      </c>
+      <c r="G23" t="s">
+        <v>130</v>
+      </c>
+      <c r="H23" s="2">
+        <v>43147.552847222221</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>131</v>
+      </c>
+      <c r="B24" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" s="1">
+        <v>27741</v>
+      </c>
+      <c r="D24" t="s">
+        <v>133</v>
+      </c>
+      <c r="E24" t="s">
+        <v>134</v>
+      </c>
+      <c r="F24" t="s">
+        <v>135</v>
+      </c>
+      <c r="G24" t="s">
+        <v>136</v>
+      </c>
+      <c r="H24" s="2">
+        <v>43522.384548611109</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>137</v>
+      </c>
+      <c r="B25" t="s">
+        <v>138</v>
+      </c>
+      <c r="C25" s="1">
+        <v>32080</v>
+      </c>
+      <c r="D25" t="s">
+        <v>139</v>
+      </c>
+      <c r="E25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F25" t="s">
+        <v>141</v>
+      </c>
+      <c r="G25" t="s">
+        <v>142</v>
+      </c>
+      <c r="H25" s="2">
+        <v>38402.09815972222</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>143</v>
+      </c>
+      <c r="B26" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" s="1">
+        <v>29038</v>
+      </c>
+      <c r="D26" t="s">
+        <v>145</v>
+      </c>
+      <c r="E26" t="s">
+        <v>146</v>
+      </c>
+      <c r="F26" t="s">
+        <v>147</v>
+      </c>
+      <c r="G26" t="s">
+        <v>148</v>
+      </c>
+      <c r="H26" s="2">
+        <v>41731.770972222221</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>149</v>
+      </c>
+      <c r="B27" t="s">
+        <v>150</v>
+      </c>
+      <c r="C27" s="1">
+        <v>31653</v>
+      </c>
+      <c r="D27" t="s">
+        <v>151</v>
+      </c>
+      <c r="E27" t="s">
+        <v>152</v>
+      </c>
+      <c r="F27" t="s">
+        <v>153</v>
+      </c>
+      <c r="G27" t="s">
+        <v>154</v>
+      </c>
+      <c r="H27" s="2">
+        <v>41159.130150462966</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>155</v>
+      </c>
+      <c r="B28" t="s">
+        <v>156</v>
+      </c>
+      <c r="C28" s="1">
+        <v>30954</v>
+      </c>
+      <c r="D28" t="s">
+        <v>157</v>
+      </c>
+      <c r="E28" t="s">
+        <v>158</v>
+      </c>
+      <c r="F28" t="s">
+        <v>159</v>
+      </c>
+      <c r="G28" t="s">
+        <v>160</v>
+      </c>
+      <c r="H28" s="2">
+        <v>40361.62909722222</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>161</v>
+      </c>
+      <c r="B29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C29" s="1">
+        <v>32613</v>
+      </c>
+      <c r="D29" t="s">
+        <v>163</v>
+      </c>
+      <c r="E29" t="s">
+        <v>164</v>
+      </c>
+      <c r="F29" t="s">
+        <v>165</v>
+      </c>
+      <c r="G29" t="s">
+        <v>166</v>
+      </c>
+      <c r="H29" s="2">
+        <v>43593.501203703701</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>167</v>
+      </c>
+      <c r="B30" t="s">
+        <v>168</v>
+      </c>
+      <c r="C30" s="1">
+        <v>28575</v>
+      </c>
+      <c r="D30" t="s">
+        <v>169</v>
+      </c>
+      <c r="E30" t="s">
+        <v>170</v>
+      </c>
+      <c r="F30" t="s">
+        <v>171</v>
+      </c>
+      <c r="G30" t="s">
+        <v>172</v>
+      </c>
+      <c r="H30" s="2">
+        <v>41598.835833333331</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>173</v>
+      </c>
+      <c r="B31" t="s">
+        <v>174</v>
+      </c>
+      <c r="C31" s="1">
+        <v>31584</v>
+      </c>
+      <c r="D31" t="s">
+        <v>175</v>
+      </c>
+      <c r="E31" t="s">
+        <v>176</v>
+      </c>
+      <c r="F31" t="s">
+        <v>177</v>
+      </c>
+      <c r="G31" t="s">
+        <v>178</v>
+      </c>
+      <c r="H31" s="2">
+        <v>42687.620150462964</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>179</v>
+      </c>
+      <c r="B32" t="s">
+        <v>180</v>
+      </c>
+      <c r="C32" s="1">
+        <v>35503</v>
+      </c>
+      <c r="D32" t="s">
+        <v>181</v>
+      </c>
+      <c r="E32" t="s">
+        <v>182</v>
+      </c>
+      <c r="F32" t="s">
+        <v>183</v>
+      </c>
+      <c r="G32" t="s">
+        <v>184</v>
+      </c>
+      <c r="H32" s="2">
+        <v>41422.539687500001</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>185</v>
+      </c>
+      <c r="B33" t="s">
+        <v>186</v>
+      </c>
+      <c r="C33" s="1">
+        <v>34263</v>
+      </c>
+      <c r="D33" t="s">
+        <v>187</v>
+      </c>
+      <c r="E33" t="s">
+        <v>188</v>
+      </c>
+      <c r="F33" t="s">
+        <v>189</v>
+      </c>
+      <c r="G33" t="s">
+        <v>190</v>
+      </c>
+      <c r="H33" s="2">
+        <v>38728.033819444441</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>191</v>
+      </c>
+      <c r="B34" t="s">
+        <v>192</v>
+      </c>
+      <c r="C34" s="1">
+        <v>25839</v>
+      </c>
+      <c r="D34" t="s">
+        <v>193</v>
+      </c>
+      <c r="E34" t="s">
+        <v>194</v>
+      </c>
+      <c r="F34" t="s">
+        <v>195</v>
+      </c>
+      <c r="G34" t="s">
+        <v>196</v>
+      </c>
+      <c r="H34" s="2">
+        <v>42824.765532407408</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>197</v>
+      </c>
+      <c r="B35" t="s">
+        <v>198</v>
+      </c>
+      <c r="C35" s="1">
+        <v>32650</v>
+      </c>
+      <c r="D35" t="s">
+        <v>199</v>
+      </c>
+      <c r="E35" t="s">
+        <v>200</v>
+      </c>
+      <c r="F35" t="s">
+        <v>201</v>
+      </c>
+      <c r="G35" t="s">
+        <v>202</v>
+      </c>
+      <c r="H35" s="2">
+        <v>42754.807673611111</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>203</v>
+      </c>
+      <c r="B36" t="s">
+        <v>204</v>
+      </c>
+      <c r="C36" s="1">
+        <v>34301</v>
+      </c>
+      <c r="D36" t="s">
+        <v>205</v>
+      </c>
+      <c r="E36" t="s">
+        <v>206</v>
+      </c>
+      <c r="F36" t="s">
+        <v>207</v>
+      </c>
+      <c r="G36" t="s">
+        <v>208</v>
+      </c>
+      <c r="H36" s="2">
+        <v>42042.795358796298</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>209</v>
+      </c>
+      <c r="B37" t="s">
+        <v>210</v>
+      </c>
+      <c r="C37" s="1">
+        <v>25830</v>
+      </c>
+      <c r="D37" t="s">
+        <v>211</v>
+      </c>
+      <c r="E37" t="s">
+        <v>212</v>
+      </c>
+      <c r="F37" t="s">
+        <v>213</v>
+      </c>
+      <c r="G37" t="s">
+        <v>214</v>
+      </c>
+      <c r="H37" s="2">
+        <v>39093.650601851848</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>215</v>
+      </c>
+      <c r="B38" t="s">
+        <v>216</v>
+      </c>
+      <c r="C38" s="1">
+        <v>30715</v>
+      </c>
+      <c r="D38" t="s">
+        <v>217</v>
+      </c>
+      <c r="E38" t="s">
+        <v>218</v>
+      </c>
+      <c r="F38" t="s">
+        <v>219</v>
+      </c>
+      <c r="G38" t="s">
+        <v>220</v>
+      </c>
+      <c r="H38" s="2">
+        <v>38946.407060185185</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>221</v>
+      </c>
+      <c r="B39" t="s">
+        <v>222</v>
+      </c>
+      <c r="C39" s="1">
+        <v>29565</v>
+      </c>
+      <c r="D39" t="s">
+        <v>223</v>
+      </c>
+      <c r="E39" t="s">
+        <v>224</v>
+      </c>
+      <c r="F39" t="s">
+        <v>225</v>
+      </c>
+      <c r="G39" t="s">
+        <v>226</v>
+      </c>
+      <c r="H39" s="2">
+        <v>44278.575787037036</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>227</v>
+      </c>
+      <c r="B40" t="s">
+        <v>228</v>
+      </c>
+      <c r="C40" s="1">
+        <v>32471</v>
+      </c>
+      <c r="D40" t="s">
+        <v>229</v>
+      </c>
+      <c r="E40" t="s">
+        <v>230</v>
+      </c>
+      <c r="F40" t="s">
+        <v>231</v>
+      </c>
+      <c r="G40" t="s">
+        <v>232</v>
+      </c>
+      <c r="H40" s="2">
+        <v>40063.243634259263</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>233</v>
+      </c>
+      <c r="B41" t="s">
+        <v>234</v>
+      </c>
+      <c r="C41" s="1">
+        <v>29692</v>
+      </c>
+      <c r="D41" t="s">
+        <v>235</v>
+      </c>
+      <c r="E41" t="s">
+        <v>236</v>
+      </c>
+      <c r="F41" t="s">
+        <v>237</v>
+      </c>
+      <c r="G41" t="s">
+        <v>238</v>
+      </c>
+      <c r="H41" s="2">
+        <v>40677.36005787037</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>239</v>
+      </c>
+      <c r="B42" t="s">
+        <v>240</v>
+      </c>
+      <c r="C42" s="1">
+        <v>36289</v>
+      </c>
+      <c r="D42" t="s">
+        <v>241</v>
+      </c>
+      <c r="E42" t="s">
+        <v>242</v>
+      </c>
+      <c r="F42" t="s">
+        <v>243</v>
+      </c>
+      <c r="G42" t="s">
+        <v>244</v>
+      </c>
+      <c r="H42" s="2">
+        <v>39818.013310185182</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>245</v>
+      </c>
+      <c r="B43" t="s">
+        <v>246</v>
+      </c>
+      <c r="C43" s="1">
+        <v>31587</v>
+      </c>
+      <c r="D43" t="s">
+        <v>247</v>
+      </c>
+      <c r="E43" t="s">
+        <v>248</v>
+      </c>
+      <c r="F43" t="s">
+        <v>249</v>
+      </c>
+      <c r="G43" t="s">
+        <v>250</v>
+      </c>
+      <c r="H43" s="2">
+        <v>40534.30332175926</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>251</v>
+      </c>
+      <c r="B44" t="s">
+        <v>252</v>
+      </c>
+      <c r="C44" s="1">
+        <v>31131</v>
+      </c>
+      <c r="D44" t="s">
+        <v>253</v>
+      </c>
+      <c r="E44" t="s">
+        <v>254</v>
+      </c>
+      <c r="F44" t="s">
+        <v>255</v>
+      </c>
+      <c r="G44" t="s">
+        <v>256</v>
+      </c>
+      <c r="H44" s="2">
+        <v>44141.284236111111</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>257</v>
+      </c>
+      <c r="B45" t="s">
+        <v>258</v>
+      </c>
+      <c r="C45" s="1">
+        <v>33507</v>
+      </c>
+      <c r="D45" t="s">
+        <v>259</v>
+      </c>
+      <c r="E45" t="s">
+        <v>260</v>
+      </c>
+      <c r="F45" t="s">
+        <v>261</v>
+      </c>
+      <c r="G45" t="s">
+        <v>262</v>
+      </c>
+      <c r="H45" s="2">
+        <v>41834.06659722222</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>263</v>
+      </c>
+      <c r="B46" t="s">
+        <v>264</v>
+      </c>
+      <c r="C46" s="1">
+        <v>31210</v>
+      </c>
+      <c r="D46" t="s">
+        <v>265</v>
+      </c>
+      <c r="E46" t="s">
+        <v>266</v>
+      </c>
+      <c r="F46" t="s">
+        <v>267</v>
+      </c>
+      <c r="G46" t="s">
+        <v>268</v>
+      </c>
+      <c r="H46" s="2">
+        <v>41294.17496527778</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>269</v>
+      </c>
+      <c r="B47" t="s">
+        <v>270</v>
+      </c>
+      <c r="C47" s="1">
+        <v>28423</v>
+      </c>
+      <c r="D47" t="s">
+        <v>271</v>
+      </c>
+      <c r="E47" t="s">
+        <v>272</v>
+      </c>
+      <c r="F47" t="s">
+        <v>273</v>
+      </c>
+      <c r="G47" t="s">
+        <v>274</v>
+      </c>
+      <c r="H47" s="2">
+        <v>38806.385925925926</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>275</v>
+      </c>
+      <c r="B48" t="s">
+        <v>276</v>
+      </c>
+      <c r="C48" s="1">
+        <v>36594</v>
+      </c>
+      <c r="D48" t="s">
+        <v>277</v>
+      </c>
+      <c r="E48" t="s">
+        <v>278</v>
+      </c>
+      <c r="F48" t="s">
+        <v>279</v>
+      </c>
+      <c r="G48" t="s">
+        <v>280</v>
+      </c>
+      <c r="H48" s="2">
+        <v>42987.803449074076</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>281</v>
+      </c>
+      <c r="B49" t="s">
+        <v>282</v>
+      </c>
+      <c r="C49" s="1">
+        <v>28587</v>
+      </c>
+      <c r="D49" t="s">
+        <v>283</v>
+      </c>
+      <c r="E49" t="s">
+        <v>284</v>
+      </c>
+      <c r="F49" t="s">
+        <v>285</v>
+      </c>
+      <c r="G49" t="s">
+        <v>286</v>
+      </c>
+      <c r="H49" s="2">
+        <v>38933.363912037035</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>287</v>
+      </c>
+      <c r="B50" t="s">
+        <v>288</v>
+      </c>
+      <c r="C50" s="1">
+        <v>28102</v>
+      </c>
+      <c r="D50" t="s">
+        <v>289</v>
+      </c>
+      <c r="E50" t="s">
+        <v>290</v>
+      </c>
+      <c r="F50" t="s">
+        <v>291</v>
+      </c>
+      <c r="G50" t="s">
+        <v>292</v>
+      </c>
+      <c r="H50" s="2">
+        <v>39359.736932870372</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>293</v>
+      </c>
+      <c r="B51" t="s">
+        <v>294</v>
+      </c>
+      <c r="C51" s="1">
+        <v>28874</v>
+      </c>
+      <c r="D51" t="s">
+        <v>295</v>
+      </c>
+      <c r="E51" t="s">
+        <v>296</v>
+      </c>
+      <c r="F51" t="s">
+        <v>297</v>
+      </c>
+      <c r="G51" t="s">
+        <v>298</v>
+      </c>
+      <c r="H51" s="2">
+        <v>40874.840925925928</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
+        <v>299</v>
+      </c>
+      <c r="B52" t="s">
+        <v>300</v>
+      </c>
+      <c r="C52" s="1">
+        <v>27279</v>
+      </c>
+      <c r="D52" t="s">
+        <v>301</v>
+      </c>
+      <c r="E52" t="s">
+        <v>302</v>
+      </c>
+      <c r="F52" t="s">
+        <v>303</v>
+      </c>
+      <c r="G52" t="s">
+        <v>304</v>
+      </c>
+      <c r="H52" s="2">
+        <v>39982.265509259261</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>305</v>
+      </c>
+      <c r="B53" t="s">
+        <v>306</v>
+      </c>
+      <c r="C53" s="1">
+        <v>27862</v>
+      </c>
+      <c r="D53" t="s">
+        <v>307</v>
+      </c>
+      <c r="E53" t="s">
+        <v>308</v>
+      </c>
+      <c r="F53" t="s">
+        <v>309</v>
+      </c>
+      <c r="G53" t="s">
+        <v>310</v>
+      </c>
+      <c r="H53" s="2">
+        <v>40307.522407407407</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>311</v>
+      </c>
+      <c r="B54" t="s">
+        <v>312</v>
+      </c>
+      <c r="C54" s="1">
+        <v>36116</v>
+      </c>
+      <c r="D54" t="s">
+        <v>313</v>
+      </c>
+      <c r="E54" t="s">
+        <v>314</v>
+      </c>
+      <c r="F54" t="s">
+        <v>315</v>
+      </c>
+      <c r="G54" t="s">
+        <v>316</v>
+      </c>
+      <c r="H54" s="2">
+        <v>44010.445555555554</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
+        <v>317</v>
+      </c>
+      <c r="B55" t="s">
+        <v>318</v>
+      </c>
+      <c r="C55" s="1">
+        <v>26192</v>
+      </c>
+      <c r="D55" t="s">
+        <v>319</v>
+      </c>
+      <c r="E55" t="s">
+        <v>320</v>
+      </c>
+      <c r="F55" t="s">
+        <v>321</v>
+      </c>
+      <c r="G55" t="s">
+        <v>322</v>
+      </c>
+      <c r="H55" s="2">
+        <v>42521.074236111112</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
+        <v>323</v>
+      </c>
+      <c r="B56" t="s">
+        <v>324</v>
+      </c>
+      <c r="C56" s="1">
+        <v>33770</v>
+      </c>
+      <c r="D56" t="s">
+        <v>325</v>
+      </c>
+      <c r="E56" t="s">
+        <v>326</v>
+      </c>
+      <c r="F56" t="s">
+        <v>327</v>
+      </c>
+      <c r="G56" t="s">
+        <v>328</v>
+      </c>
+      <c r="H56" s="2">
+        <v>42977.750335648147</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
+        <v>329</v>
+      </c>
+      <c r="B57" t="s">
+        <v>330</v>
+      </c>
+      <c r="C57" s="1">
+        <v>26904</v>
+      </c>
+      <c r="D57" t="s">
+        <v>331</v>
+      </c>
+      <c r="E57" t="s">
+        <v>332</v>
+      </c>
+      <c r="F57" t="s">
+        <v>333</v>
+      </c>
+      <c r="G57" t="s">
+        <v>334</v>
+      </c>
+      <c r="H57" s="2">
+        <v>44126.775763888887</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" t="s">
+        <v>335</v>
+      </c>
+      <c r="B58" t="s">
+        <v>336</v>
+      </c>
+      <c r="C58" s="1">
+        <v>25827</v>
+      </c>
+      <c r="D58" t="s">
+        <v>337</v>
+      </c>
+      <c r="E58" t="s">
+        <v>338</v>
+      </c>
+      <c r="F58" t="s">
+        <v>339</v>
+      </c>
+      <c r="G58" t="s">
+        <v>340</v>
+      </c>
+      <c r="H58" s="2">
+        <v>39893.562847222223</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" t="s">
+        <v>341</v>
+      </c>
+      <c r="B59" t="s">
+        <v>342</v>
+      </c>
+      <c r="C59" s="1">
+        <v>32865</v>
+      </c>
+      <c r="D59" t="s">
+        <v>343</v>
+      </c>
+      <c r="E59" t="s">
+        <v>344</v>
+      </c>
+      <c r="F59" t="s">
+        <v>345</v>
+      </c>
+      <c r="G59" t="s">
+        <v>346</v>
+      </c>
+      <c r="H59" s="2">
+        <v>41651.195277777777</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" t="s">
+        <v>347</v>
+      </c>
+      <c r="B60" t="s">
+        <v>348</v>
+      </c>
+      <c r="C60" s="1">
+        <v>31253</v>
+      </c>
+      <c r="D60" t="s">
+        <v>349</v>
+      </c>
+      <c r="E60" t="s">
+        <v>350</v>
+      </c>
+      <c r="F60" t="s">
+        <v>351</v>
+      </c>
+      <c r="G60" t="s">
+        <v>352</v>
+      </c>
+      <c r="H60" s="2">
+        <v>41924.948495370372</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" t="s">
+        <v>353</v>
+      </c>
+      <c r="B61" t="s">
+        <v>354</v>
+      </c>
+      <c r="C61" s="1">
+        <v>31885</v>
+      </c>
+      <c r="D61" t="s">
+        <v>355</v>
+      </c>
+      <c r="E61" t="s">
+        <v>356</v>
+      </c>
+      <c r="F61" t="s">
+        <v>357</v>
+      </c>
+      <c r="G61" t="s">
+        <v>358</v>
+      </c>
+      <c r="H61" s="2">
+        <v>43461.374131944445</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" t="s">
+        <v>359</v>
+      </c>
+      <c r="B62" t="s">
+        <v>360</v>
+      </c>
+      <c r="C62" s="1">
+        <v>36212</v>
+      </c>
+      <c r="D62" t="s">
+        <v>361</v>
+      </c>
+      <c r="E62" t="s">
+        <v>362</v>
+      </c>
+      <c r="F62" t="s">
+        <v>363</v>
+      </c>
+      <c r="G62" t="s">
+        <v>364</v>
+      </c>
+      <c r="H62" s="2">
+        <v>39528.279918981483</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" t="s">
+        <v>365</v>
+      </c>
+      <c r="B63" t="s">
+        <v>366</v>
+      </c>
+      <c r="C63" s="1">
+        <v>27835</v>
+      </c>
+      <c r="D63" t="s">
+        <v>367</v>
+      </c>
+      <c r="E63" t="s">
+        <v>368</v>
+      </c>
+      <c r="F63" t="s">
+        <v>369</v>
+      </c>
+      <c r="G63" t="s">
+        <v>370</v>
+      </c>
+      <c r="H63" s="2">
+        <v>43170.143125000002</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" t="s">
+        <v>371</v>
+      </c>
+      <c r="B64" t="s">
+        <v>372</v>
+      </c>
+      <c r="C64" s="1">
+        <v>33379</v>
+      </c>
+      <c r="D64" t="s">
+        <v>373</v>
+      </c>
+      <c r="E64" t="s">
+        <v>374</v>
+      </c>
+      <c r="F64" t="s">
+        <v>375</v>
+      </c>
+      <c r="G64" t="s">
+        <v>376</v>
+      </c>
+      <c r="H64" s="2">
+        <v>41759.093657407408</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" t="s">
+        <v>377</v>
+      </c>
+      <c r="B65" t="s">
+        <v>378</v>
+      </c>
+      <c r="C65" s="1">
+        <v>26064</v>
+      </c>
+      <c r="D65" t="s">
+        <v>379</v>
+      </c>
+      <c r="E65" t="s">
+        <v>380</v>
+      </c>
+      <c r="F65" t="s">
+        <v>381</v>
+      </c>
+      <c r="G65" t="s">
+        <v>382</v>
+      </c>
+      <c r="H65" s="2">
+        <v>40462.889502314814</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" t="s">
+        <v>383</v>
+      </c>
+      <c r="B66" t="s">
+        <v>384</v>
+      </c>
+      <c r="C66" s="1">
+        <v>28225</v>
+      </c>
+      <c r="D66" t="s">
+        <v>385</v>
+      </c>
+      <c r="E66" t="s">
+        <v>386</v>
+      </c>
+      <c r="F66" t="s">
+        <v>387</v>
+      </c>
+      <c r="G66" t="s">
+        <v>388</v>
+      </c>
+      <c r="H66" s="2">
+        <v>38993.321284722224</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" t="s">
+        <v>389</v>
+      </c>
+      <c r="B67" t="s">
+        <v>390</v>
+      </c>
+      <c r="C67" s="1">
+        <v>28736</v>
+      </c>
+      <c r="D67" t="s">
+        <v>391</v>
+      </c>
+      <c r="E67" t="s">
+        <v>392</v>
+      </c>
+      <c r="F67" t="s">
+        <v>393</v>
+      </c>
+      <c r="G67" t="s">
+        <v>394</v>
+      </c>
+      <c r="H67" s="2">
+        <v>42120.501435185186</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" t="s">
+        <v>395</v>
+      </c>
+      <c r="B68" t="s">
+        <v>396</v>
+      </c>
+      <c r="C68" s="1">
+        <v>29414</v>
+      </c>
+      <c r="D68" t="s">
+        <v>397</v>
+      </c>
+      <c r="E68" t="s">
+        <v>398</v>
+      </c>
+      <c r="F68" t="s">
+        <v>399</v>
+      </c>
+      <c r="G68" t="s">
+        <v>400</v>
+      </c>
+      <c r="H68" s="2">
+        <v>39865.150231481479</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" t="s">
+        <v>401</v>
+      </c>
+      <c r="B69" t="s">
+        <v>402</v>
+      </c>
+      <c r="C69" s="1">
+        <v>33957</v>
+      </c>
+      <c r="D69" t="s">
+        <v>403</v>
+      </c>
+      <c r="E69" t="s">
+        <v>404</v>
+      </c>
+      <c r="F69" t="s">
+        <v>405</v>
+      </c>
+      <c r="G69" t="s">
+        <v>406</v>
+      </c>
+      <c r="H69" s="2">
+        <v>42931.600185185183</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" t="s">
+        <v>407</v>
+      </c>
+      <c r="B70" t="s">
+        <v>408</v>
+      </c>
+      <c r="C70" s="1">
+        <v>28438</v>
+      </c>
+      <c r="D70" t="s">
+        <v>409</v>
+      </c>
+      <c r="E70" t="s">
+        <v>410</v>
+      </c>
+      <c r="F70" t="s">
+        <v>411</v>
+      </c>
+      <c r="G70" t="s">
+        <v>412</v>
+      </c>
+      <c r="H70" s="2">
+        <v>39018.031458333331</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" t="s">
+        <v>413</v>
+      </c>
+      <c r="B71" t="s">
+        <v>414</v>
+      </c>
+      <c r="C71" s="1">
+        <v>29260</v>
+      </c>
+      <c r="D71" t="s">
+        <v>415</v>
+      </c>
+      <c r="E71" t="s">
+        <v>416</v>
+      </c>
+      <c r="F71" t="s">
+        <v>417</v>
+      </c>
+      <c r="G71" t="s">
+        <v>418</v>
+      </c>
+      <c r="H71" s="2">
+        <v>38760.850405092591</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" t="s">
+        <v>419</v>
+      </c>
+      <c r="B72" t="s">
+        <v>420</v>
+      </c>
+      <c r="C72" s="1">
+        <v>33899</v>
+      </c>
+      <c r="D72" t="s">
+        <v>421</v>
+      </c>
+      <c r="E72" t="s">
+        <v>422</v>
+      </c>
+      <c r="F72" t="s">
+        <v>423</v>
+      </c>
+      <c r="G72" t="s">
+        <v>424</v>
+      </c>
+      <c r="H72" s="2">
+        <v>41777.592349537037</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" t="s">
+        <v>425</v>
+      </c>
+      <c r="B73" t="s">
+        <v>426</v>
+      </c>
+      <c r="C73" s="1">
+        <v>28021</v>
+      </c>
+      <c r="D73" t="s">
+        <v>427</v>
+      </c>
+      <c r="E73" t="s">
+        <v>428</v>
+      </c>
+      <c r="F73" t="s">
+        <v>429</v>
+      </c>
+      <c r="G73" t="s">
+        <v>430</v>
+      </c>
+      <c r="H73" s="2">
+        <v>39442.242962962962</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" t="s">
+        <v>431</v>
+      </c>
+      <c r="B74" t="s">
+        <v>432</v>
+      </c>
+      <c r="C74" s="1">
+        <v>26751</v>
+      </c>
+      <c r="D74" t="s">
+        <v>433</v>
+      </c>
+      <c r="E74" t="s">
+        <v>434</v>
+      </c>
+      <c r="F74" t="s">
+        <v>435</v>
+      </c>
+      <c r="G74" t="s">
+        <v>436</v>
+      </c>
+      <c r="H74" s="2">
+        <v>38535.210057870368</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" t="s">
+        <v>437</v>
+      </c>
+      <c r="B75" t="s">
+        <v>438</v>
+      </c>
+      <c r="C75" s="1">
+        <v>36628</v>
+      </c>
+      <c r="D75" t="s">
+        <v>439</v>
+      </c>
+      <c r="E75" t="s">
+        <v>440</v>
+      </c>
+      <c r="F75" t="s">
+        <v>441</v>
+      </c>
+      <c r="G75" t="s">
+        <v>442</v>
+      </c>
+      <c r="H75" s="2">
+        <v>41175.734513888892</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" t="s">
+        <v>443</v>
+      </c>
+      <c r="B76" t="s">
+        <v>444</v>
+      </c>
+      <c r="C76" s="1">
+        <v>26346</v>
+      </c>
+      <c r="D76" t="s">
+        <v>445</v>
+      </c>
+      <c r="E76" t="s">
+        <v>446</v>
+      </c>
+      <c r="F76" t="s">
+        <v>447</v>
+      </c>
+      <c r="G76" t="s">
+        <v>448</v>
+      </c>
+      <c r="H76" s="2">
+        <v>42268.358124999999</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" t="s">
+        <v>449</v>
+      </c>
+      <c r="B77" t="s">
+        <v>450</v>
+      </c>
+      <c r="C77" s="1">
+        <v>33469</v>
+      </c>
+      <c r="D77" t="s">
+        <v>451</v>
+      </c>
+      <c r="E77" t="s">
+        <v>452</v>
+      </c>
+      <c r="F77" t="s">
+        <v>453</v>
+      </c>
+      <c r="G77" t="s">
+        <v>454</v>
+      </c>
+      <c r="H77" s="2">
+        <v>42234.621712962966</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" t="s">
+        <v>455</v>
+      </c>
+      <c r="B78" t="s">
+        <v>456</v>
+      </c>
+      <c r="C78" s="1">
+        <v>30170</v>
+      </c>
+      <c r="D78" t="s">
+        <v>457</v>
+      </c>
+      <c r="E78" t="s">
+        <v>458</v>
+      </c>
+      <c r="F78" t="s">
+        <v>459</v>
+      </c>
+      <c r="G78" t="s">
+        <v>460</v>
+      </c>
+      <c r="H78" s="2">
+        <v>39561.8512962963</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" t="s">
+        <v>461</v>
+      </c>
+      <c r="B79" t="s">
+        <v>462</v>
+      </c>
+      <c r="C79" s="1">
+        <v>31024</v>
+      </c>
+      <c r="D79" t="s">
+        <v>463</v>
+      </c>
+      <c r="E79" t="s">
+        <v>464</v>
+      </c>
+      <c r="F79" t="s">
+        <v>465</v>
+      </c>
+      <c r="G79" t="s">
+        <v>466</v>
+      </c>
+      <c r="H79" s="2">
+        <v>43588.045694444445</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" t="s">
+        <v>467</v>
+      </c>
+      <c r="B80" t="s">
+        <v>468</v>
+      </c>
+      <c r="C80" s="1">
+        <v>32694</v>
+      </c>
+      <c r="D80" t="s">
+        <v>469</v>
+      </c>
+      <c r="E80" t="s">
+        <v>470</v>
+      </c>
+      <c r="F80" t="s">
+        <v>471</v>
+      </c>
+      <c r="G80" t="s">
+        <v>472</v>
+      </c>
+      <c r="H80" s="2">
+        <v>40549.198252314818</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" t="s">
+        <v>473</v>
+      </c>
+      <c r="B81" t="s">
+        <v>474</v>
+      </c>
+      <c r="C81" s="1">
+        <v>27063</v>
+      </c>
+      <c r="D81" t="s">
+        <v>475</v>
+      </c>
+      <c r="E81" t="s">
+        <v>476</v>
+      </c>
+      <c r="F81" t="s">
+        <v>477</v>
+      </c>
+      <c r="G81" t="s">
+        <v>478</v>
+      </c>
+      <c r="H81" s="2">
+        <v>44185.448807870373</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" t="s">
+        <v>479</v>
+      </c>
+      <c r="B82" t="s">
+        <v>480</v>
+      </c>
+      <c r="C82" s="1">
+        <v>34433</v>
+      </c>
+      <c r="D82" t="s">
+        <v>481</v>
+      </c>
+      <c r="E82" t="s">
+        <v>482</v>
+      </c>
+      <c r="F82" t="s">
+        <v>483</v>
+      </c>
+      <c r="G82" t="s">
+        <v>484</v>
+      </c>
+      <c r="H82" s="2">
+        <v>39817.509027777778</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" t="s">
+        <v>485</v>
+      </c>
+      <c r="B83" t="s">
+        <v>486</v>
+      </c>
+      <c r="C83" s="1">
+        <v>35890</v>
+      </c>
+      <c r="D83" t="s">
+        <v>487</v>
+      </c>
+      <c r="E83" t="s">
+        <v>488</v>
+      </c>
+      <c r="F83" t="s">
+        <v>489</v>
+      </c>
+      <c r="G83" t="s">
+        <v>490</v>
+      </c>
+      <c r="H83" s="2">
+        <v>41643.007754629631</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" t="s">
+        <v>491</v>
+      </c>
+      <c r="B84" t="s">
+        <v>492</v>
+      </c>
+      <c r="C84" s="1">
+        <v>31273</v>
+      </c>
+      <c r="D84" t="s">
+        <v>493</v>
+      </c>
+      <c r="E84" t="s">
+        <v>494</v>
+      </c>
+      <c r="F84" t="s">
+        <v>495</v>
+      </c>
+      <c r="G84" t="s">
+        <v>496</v>
+      </c>
+      <c r="H84" s="2">
+        <v>41403.350439814814</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" t="s">
+        <v>497</v>
+      </c>
+      <c r="B85" t="s">
+        <v>498</v>
+      </c>
+      <c r="C85" s="1">
+        <v>33040</v>
+      </c>
+      <c r="D85" t="s">
+        <v>499</v>
+      </c>
+      <c r="E85" t="s">
+        <v>500</v>
+      </c>
+      <c r="F85" t="s">
+        <v>501</v>
+      </c>
+      <c r="G85" t="s">
+        <v>502</v>
+      </c>
+      <c r="H85" s="2">
+        <v>40251.064270833333</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" t="s">
+        <v>503</v>
+      </c>
+      <c r="B86" t="s">
+        <v>504</v>
+      </c>
+      <c r="C86" s="1">
+        <v>34050</v>
+      </c>
+      <c r="D86" t="s">
+        <v>505</v>
+      </c>
+      <c r="E86" t="s">
+        <v>506</v>
+      </c>
+      <c r="F86" t="s">
+        <v>507</v>
+      </c>
+      <c r="G86" t="s">
+        <v>508</v>
+      </c>
+      <c r="H86" s="2">
+        <v>40933.466793981483</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" t="s">
+        <v>509</v>
+      </c>
+      <c r="B87" t="s">
+        <v>510</v>
+      </c>
+      <c r="C87" s="1">
+        <v>35432</v>
+      </c>
+      <c r="D87" t="s">
+        <v>511</v>
+      </c>
+      <c r="E87" t="s">
+        <v>512</v>
+      </c>
+      <c r="F87" t="s">
+        <v>513</v>
+      </c>
+      <c r="G87" t="s">
+        <v>514</v>
+      </c>
+      <c r="H87" s="2">
+        <v>42938.151666666665</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" t="s">
+        <v>515</v>
+      </c>
+      <c r="B88" t="s">
+        <v>516</v>
+      </c>
+      <c r="C88" s="1">
+        <v>25991</v>
+      </c>
+      <c r="D88" t="s">
+        <v>517</v>
+      </c>
+      <c r="E88" t="s">
+        <v>518</v>
+      </c>
+      <c r="F88" t="s">
+        <v>519</v>
+      </c>
+      <c r="G88" t="s">
+        <v>520</v>
+      </c>
+      <c r="H88" s="2">
+        <v>41851.90388888889</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" t="s">
+        <v>521</v>
+      </c>
+      <c r="B89" t="s">
+        <v>522</v>
+      </c>
+      <c r="C89" s="1">
+        <v>31588</v>
+      </c>
+      <c r="D89" t="s">
+        <v>523</v>
+      </c>
+      <c r="E89" t="s">
+        <v>524</v>
+      </c>
+      <c r="F89" t="s">
+        <v>525</v>
+      </c>
+      <c r="G89" t="s">
+        <v>526</v>
+      </c>
+      <c r="H89" s="2">
+        <v>42630.124942129631</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" t="s">
+        <v>527</v>
+      </c>
+      <c r="B90" t="s">
+        <v>528</v>
+      </c>
+      <c r="C90" s="1">
+        <v>27148</v>
+      </c>
+      <c r="D90" t="s">
+        <v>529</v>
+      </c>
+      <c r="E90" t="s">
+        <v>530</v>
+      </c>
+      <c r="F90" t="s">
+        <v>531</v>
+      </c>
+      <c r="G90" t="s">
+        <v>532</v>
+      </c>
+      <c r="H90" s="2">
+        <v>40308.601817129631</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" t="s">
+        <v>533</v>
+      </c>
+      <c r="B91" t="s">
+        <v>534</v>
+      </c>
+      <c r="C91" s="1">
+        <v>33060</v>
+      </c>
+      <c r="D91" t="s">
+        <v>535</v>
+      </c>
+      <c r="E91" t="s">
+        <v>536</v>
+      </c>
+      <c r="F91" t="s">
+        <v>537</v>
+      </c>
+      <c r="G91" t="s">
+        <v>538</v>
+      </c>
+      <c r="H91" s="2">
+        <v>42624.166006944448</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" t="s">
+        <v>539</v>
+      </c>
+      <c r="B92" t="s">
+        <v>540</v>
+      </c>
+      <c r="C92" s="1">
+        <v>30162</v>
+      </c>
+      <c r="D92" t="s">
+        <v>541</v>
+      </c>
+      <c r="E92" t="s">
+        <v>542</v>
+      </c>
+      <c r="F92" t="s">
+        <v>543</v>
+      </c>
+      <c r="G92" t="s">
+        <v>544</v>
+      </c>
+      <c r="H92" s="2">
+        <v>40490.906631944446</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" t="s">
+        <v>545</v>
+      </c>
+      <c r="B93" t="s">
+        <v>546</v>
+      </c>
+      <c r="C93" s="1">
+        <v>34715</v>
+      </c>
+      <c r="D93" t="s">
+        <v>547</v>
+      </c>
+      <c r="E93" t="s">
+        <v>548</v>
+      </c>
+      <c r="F93" t="s">
+        <v>549</v>
+      </c>
+      <c r="G93" t="s">
+        <v>550</v>
+      </c>
+      <c r="H93" s="2">
+        <v>42343.866747685184</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" t="s">
+        <v>551</v>
+      </c>
+      <c r="B94" t="s">
+        <v>552</v>
+      </c>
+      <c r="C94" s="1">
+        <v>34167</v>
+      </c>
+      <c r="D94" t="s">
+        <v>553</v>
+      </c>
+      <c r="E94" t="s">
+        <v>554</v>
+      </c>
+      <c r="F94" t="s">
+        <v>555</v>
+      </c>
+      <c r="G94" t="s">
+        <v>556</v>
+      </c>
+      <c r="H94" s="2">
+        <v>38417.753819444442</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" t="s">
+        <v>557</v>
+      </c>
+      <c r="B95" t="s">
+        <v>558</v>
+      </c>
+      <c r="C95" s="1">
+        <v>25821</v>
+      </c>
+      <c r="D95" t="s">
+        <v>559</v>
+      </c>
+      <c r="E95" t="s">
+        <v>560</v>
+      </c>
+      <c r="F95" t="s">
+        <v>561</v>
+      </c>
+      <c r="G95" t="s">
+        <v>562</v>
+      </c>
+      <c r="H95" s="2">
+        <v>39039.910115740742</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" t="s">
+        <v>563</v>
+      </c>
+      <c r="B96" t="s">
+        <v>564</v>
+      </c>
+      <c r="C96" s="1">
+        <v>34743</v>
+      </c>
+      <c r="D96" t="s">
+        <v>565</v>
+      </c>
+      <c r="E96" t="s">
+        <v>566</v>
+      </c>
+      <c r="F96" t="s">
+        <v>567</v>
+      </c>
+      <c r="G96" t="s">
+        <v>568</v>
+      </c>
+      <c r="H96" s="2">
+        <v>42393.10087962963</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" t="s">
+        <v>569</v>
+      </c>
+      <c r="B97" t="s">
+        <v>570</v>
+      </c>
+      <c r="C97" s="1">
+        <v>35166</v>
+      </c>
+      <c r="D97" t="s">
+        <v>571</v>
+      </c>
+      <c r="E97" t="s">
+        <v>572</v>
+      </c>
+      <c r="F97" t="s">
+        <v>573</v>
+      </c>
+      <c r="G97" t="s">
+        <v>574</v>
+      </c>
+      <c r="H97" s="2">
+        <v>38527.38480324074</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" t="s">
+        <v>575</v>
+      </c>
+      <c r="B98" t="s">
+        <v>576</v>
+      </c>
+      <c r="C98" s="1">
+        <v>34774</v>
+      </c>
+      <c r="D98" t="s">
+        <v>577</v>
+      </c>
+      <c r="E98" t="s">
+        <v>578</v>
+      </c>
+      <c r="F98" t="s">
+        <v>579</v>
+      </c>
+      <c r="G98" t="s">
+        <v>580</v>
+      </c>
+      <c r="H98" s="2">
+        <v>40048.343599537038</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" t="s">
+        <v>581</v>
+      </c>
+      <c r="B99" t="s">
+        <v>582</v>
+      </c>
+      <c r="C99" s="1">
+        <v>32023</v>
+      </c>
+      <c r="D99" t="s">
+        <v>583</v>
+      </c>
+      <c r="E99" t="s">
+        <v>584</v>
+      </c>
+      <c r="F99" t="s">
+        <v>585</v>
+      </c>
+      <c r="G99" t="s">
+        <v>586</v>
+      </c>
+      <c r="H99" s="2">
+        <v>42370.476793981485</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" t="s">
+        <v>587</v>
+      </c>
+      <c r="B100" t="s">
+        <v>588</v>
+      </c>
+      <c r="C100" s="1">
+        <v>32148</v>
+      </c>
+      <c r="D100" t="s">
+        <v>589</v>
+      </c>
+      <c r="E100" t="s">
+        <v>590</v>
+      </c>
+      <c r="F100" t="s">
+        <v>591</v>
+      </c>
+      <c r="G100" t="s">
+        <v>592</v>
+      </c>
+      <c r="H100" s="2">
+        <v>44258.098425925928</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" t="s">
+        <v>593</v>
+      </c>
+      <c r="B101" t="s">
+        <v>594</v>
+      </c>
+      <c r="C101" s="1">
+        <v>28363</v>
+      </c>
+      <c r="D101" t="s">
+        <v>595</v>
+      </c>
+      <c r="E101" t="s">
+        <v>596</v>
+      </c>
+      <c r="F101" t="s">
+        <v>597</v>
+      </c>
+      <c r="G101" t="s">
+        <v>598</v>
+      </c>
+      <c r="H101" s="2">
+        <v>39815.474768518521</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAABCBBB-7FDD-4E35-BFE6-045DA73C952F}">
   <dimension ref="A2:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>

--- a/Excel/Tablas dinamicas.xlsx
+++ b/Excel/Tablas dinamicas.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GIANPIER\Desktop\Apuntes\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B0B30D-4B74-4B81-ADC5-3293FDE25E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106F2664-02AF-41E6-B334-EB35B361E4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" activeTab="1" xr2:uid="{ECCD99A6-C1F2-4B24-9AC6-3B5CFABE24CA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{ECCD99A6-C1F2-4B24-9AC6-3B5CFABE24CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset crudo" sheetId="1" r:id="rId1"/>
     <sheet name="Listar" sheetId="3" r:id="rId2"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId3"/>
+    <sheet name="Tabla Dinamica" sheetId="2" r:id="rId3"/>
+    <sheet name="BUSCARV" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2125" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2158" uniqueCount="656">
   <si>
     <t>C0001</t>
   </si>
@@ -1922,13 +1923,174 @@
   </si>
   <si>
     <t>2021</t>
+  </si>
+  <si>
+    <t>Apellido</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Puesto</t>
+  </si>
+  <si>
+    <t>BUSCARV</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Padilla</t>
+  </si>
+  <si>
+    <t>Torrez</t>
+  </si>
+  <si>
+    <t>Teran</t>
+  </si>
+  <si>
+    <t>Rodarte</t>
+  </si>
+  <si>
+    <t>Hermosilla</t>
+  </si>
+  <si>
+    <t>Casanova</t>
+  </si>
+  <si>
+    <t>Nalara</t>
+  </si>
+  <si>
+    <t>Miguel</t>
+  </si>
+  <si>
+    <t>Eulalia</t>
+  </si>
+  <si>
+    <t>Serafin</t>
+  </si>
+  <si>
+    <t>Alberto</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
+    <t>Vicepre</t>
+  </si>
+  <si>
+    <t>Jefe de ventas</t>
+  </si>
+  <si>
+    <t>Rep. de Ventas</t>
+  </si>
+  <si>
+    <t>BUSCARV(valor_buscado; matriz_tabla; indicador_columnas; [rango])</t>
+  </si>
+  <si>
+    <t>FORMULA</t>
+  </si>
+  <si>
+    <t>BUSCARV(B7;Tabla2[[Apellido]:[Fecha]];3;FALSO)</t>
+  </si>
+  <si>
+    <t>EJEMPLO</t>
+  </si>
+  <si>
+    <t>RESULTADO</t>
+  </si>
+  <si>
+    <t>Explicacion</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">El numero </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>indicador_columnas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> es el nro de la columna de la </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>matriz_tabla</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (empezando 1,2,3) </t>
+    </r>
+  </si>
+  <si>
+    <t>SELECT indicador_columnas FROM tabla WHERE matriz[Column1] = 'valor_buscado'</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Busca el valor </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SOLO en la primera columna</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de la </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>matriz_tabla</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1944,16 +2106,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1961,11 +2149,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1980,11 +2207,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="d/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2003,15 +2247,6 @@
         <scheme val="minor"/>
       </font>
     </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="d/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2028,7 +2263,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="GIANPIER" refreshedDate="45640.823094212959" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="99" xr:uid="{94136129-E704-4148-9BF2-5D3CC69A3359}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A2:I101" sheet="Hoja2"/>
+    <worksheetSource ref="A2:I101" sheet="Tabla Dinamica"/>
   </cacheSource>
   <cacheFields count="15">
     <cacheField name="ID" numFmtId="0">
@@ -4519,7 +4754,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CDCDE145-5025-4903-BE1F-267F60F90028}" name="Tabla1" displayName="Tabla1" ref="A2:I101" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CDCDE145-5025-4903-BE1F-267F60F90028}" name="Tabla1" displayName="Tabla1" ref="A2:I101" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="A2:I101" xr:uid="{CDCDE145-5025-4903-BE1F-267F60F90028}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{08E3A4EB-4650-41ED-A517-D513EAC82FC1}" name="ID"/>
@@ -4533,6 +4768,20 @@
     <tableColumn id="9" xr3:uid="{ACCC39FC-6847-48FE-B585-3BC29FAC5B38}" name="Grupo de clientes" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C4C6EEFE-23F9-41CC-A0F3-8EDF7EF96D80}" name="Tabla2" displayName="Tabla2" ref="A4:E10" totalsRowShown="0">
+  <autoFilter ref="A4:E10" xr:uid="{C4C6EEFE-23F9-41CC-A0F3-8EDF7EF96D80}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{5AB638DB-B6D2-442C-B348-E7621E801201}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{6E864892-1925-4A7F-A455-6D6499C9035F}" name="Apellido"/>
+    <tableColumn id="3" xr3:uid="{FADC6FB1-0499-47D6-90FD-5C0000751433}" name="Nombre"/>
+    <tableColumn id="4" xr3:uid="{DA1F0E64-FC75-490D-8A93-CE99C6D14BD3}" name="Puesto"/>
+    <tableColumn id="5" xr3:uid="{CFD3A6D7-9776-434E-9BC5-76917F2B4EE7}" name="Fecha" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -4859,15 +5108,15 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.0703125" defaultRowHeight="14.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.08203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="6.0703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.0703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.08203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.92578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.0703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.9140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.08203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -7781,21 +8030,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A56C08C-735B-4222-8F34-F2070863FC4C}">
   <dimension ref="A2:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.0703125" defaultRowHeight="14.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.08203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="6.0703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.0703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="6.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.08203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
     <col min="4" max="4" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.78515625" customWidth="1"/>
-    <col min="6" max="6" width="13.0703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.75" customWidth="1"/>
+    <col min="6" max="6" width="13.08203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" customWidth="1"/>
+    <col min="9" max="9" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9">
@@ -10710,221 +10959,221 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAABCBBB-7FDD-4E35-BFE6-045DA73C952F}">
   <dimension ref="A2:K101"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="B2" workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.0703125" defaultRowHeight="14.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.08203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="6.0703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.0703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.08203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.92578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.0703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.9140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.08203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.92578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.78515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.35546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.35546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.2109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.78515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.4140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.58203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.9140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.4140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.4140625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="14" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.78515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.58203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.4140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="20" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="17.0703125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.78515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="17.08203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.75" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="10.78515625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="13.92578125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="9.2109375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="9.92578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="18.58203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.9140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="9.9140625" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="16" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="9.78515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="9.75" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="9.35546875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="19.0703125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="16.78515625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="16.78515625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="19.08203125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="16.4140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="18.4140625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="20.58203125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="9.4140625" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="19" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="22.92578125" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="20.2109375" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="9.35546875" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="18.78515625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="19.92578125" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="22.9140625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="9.4140625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="22.4140625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="19.9140625" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="16.25" bestFit="1" customWidth="1"/>
     <col min="77" max="77" width="22" bestFit="1" customWidth="1"/>
     <col min="78" max="78" width="10" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="9.640625" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="19.2109375" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="82" max="82" width="19" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="22.640625" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="22.78515625" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="9.35546875" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="8.2109375" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="10.0703125" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="9.0703125" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="9.35546875" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="18.640625" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="9.92578125" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="13.92578125" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="10.35546875" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="9.92578125" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="25.2109375" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="16.92578125" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="18.78515625" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="12.35546875" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="22.92578125" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="26.92578125" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="18.0703125" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="26.92578125" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="20.2109375" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="26.92578125" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="18.0703125" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="26.92578125" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="26.92578125" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="26.92578125" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="18.0703125" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="26.92578125" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="18.78515625" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="26.92578125" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="18.0703125" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="26.92578125" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="18.0703125" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="26.92578125" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="26.92578125" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="18.0703125" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="26.92578125" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="18.0703125" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="26.92578125" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="19.92578125" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="26.92578125" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="18.0703125" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="26.92578125" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="24.4140625" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="9.4140625" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="9.4140625" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="21.4140625" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="10.08203125" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="9.08203125" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="9.9140625" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="13.9140625" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="9.9140625" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="25.25" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="16.9140625" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="18.58203125" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="22.9140625" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="26.9140625" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="18.08203125" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="26.9140625" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="26.9140625" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="18.08203125" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="26.9140625" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="22.4140625" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="26.9140625" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="26.9140625" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="18.08203125" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="26.9140625" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="26.9140625" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="18.08203125" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="26.9140625" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="18.08203125" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="26.9140625" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="26.9140625" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="18.08203125" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="26.9140625" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="18.08203125" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="26.9140625" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="19.9140625" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="26.9140625" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="18.08203125" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="26.9140625" bestFit="1" customWidth="1"/>
     <col min="142" max="142" width="22" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="26.92578125" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="18.0703125" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="26.92578125" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="18.0703125" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="26.92578125" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="19.2109375" bestFit="1" customWidth="1"/>
-    <col min="149" max="149" width="26.92578125" bestFit="1" customWidth="1"/>
-    <col min="150" max="150" width="18.0703125" bestFit="1" customWidth="1"/>
-    <col min="151" max="151" width="26.92578125" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="26.9140625" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="18.08203125" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="26.9140625" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="18.08203125" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="26.9140625" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="26.9140625" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="18.08203125" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="26.9140625" bestFit="1" customWidth="1"/>
     <col min="152" max="152" width="19" bestFit="1" customWidth="1"/>
-    <col min="153" max="153" width="26.92578125" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="22.640625" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="26.92578125" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="26.92578125" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="18.0703125" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="26.92578125" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="26.92578125" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="22.78515625" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="26.92578125" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="18.0703125" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="26.92578125" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="18.0703125" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="26.92578125" bestFit="1" customWidth="1"/>
-    <col min="168" max="168" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="26.92578125" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="18.0703125" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="26.92578125" bestFit="1" customWidth="1"/>
-    <col min="172" max="172" width="18.0703125" bestFit="1" customWidth="1"/>
-    <col min="173" max="173" width="26.92578125" bestFit="1" customWidth="1"/>
-    <col min="174" max="174" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="175" max="175" width="26.92578125" bestFit="1" customWidth="1"/>
-    <col min="176" max="176" width="18.0703125" bestFit="1" customWidth="1"/>
-    <col min="177" max="177" width="26.92578125" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="18.0703125" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="26.92578125" bestFit="1" customWidth="1"/>
-    <col min="180" max="180" width="18.0703125" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="26.92578125" bestFit="1" customWidth="1"/>
-    <col min="182" max="182" width="18.0703125" bestFit="1" customWidth="1"/>
-    <col min="183" max="183" width="26.92578125" bestFit="1" customWidth="1"/>
-    <col min="184" max="184" width="18.640625" bestFit="1" customWidth="1"/>
-    <col min="185" max="185" width="26.92578125" bestFit="1" customWidth="1"/>
-    <col min="186" max="186" width="18.0703125" bestFit="1" customWidth="1"/>
-    <col min="187" max="187" width="26.92578125" bestFit="1" customWidth="1"/>
-    <col min="188" max="188" width="18.0703125" bestFit="1" customWidth="1"/>
-    <col min="189" max="189" width="26.92578125" bestFit="1" customWidth="1"/>
-    <col min="190" max="190" width="18.0703125" bestFit="1" customWidth="1"/>
-    <col min="191" max="191" width="26.92578125" bestFit="1" customWidth="1"/>
-    <col min="192" max="192" width="18.0703125" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="26.92578125" bestFit="1" customWidth="1"/>
-    <col min="194" max="194" width="25.2109375" bestFit="1" customWidth="1"/>
-    <col min="195" max="195" width="26.92578125" bestFit="1" customWidth="1"/>
-    <col min="196" max="196" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="197" max="197" width="26.92578125" bestFit="1" customWidth="1"/>
-    <col min="198" max="198" width="18.0703125" bestFit="1" customWidth="1"/>
-    <col min="199" max="199" width="26.92578125" bestFit="1" customWidth="1"/>
-    <col min="200" max="200" width="18.0703125" bestFit="1" customWidth="1"/>
-    <col min="201" max="201" width="26.92578125" bestFit="1" customWidth="1"/>
-    <col min="202" max="202" width="18.0703125" bestFit="1" customWidth="1"/>
-    <col min="203" max="203" width="26.92578125" bestFit="1" customWidth="1"/>
-    <col min="204" max="204" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="205" max="205" width="26.92578125" bestFit="1" customWidth="1"/>
-    <col min="206" max="206" width="18.0703125" bestFit="1" customWidth="1"/>
-    <col min="207" max="207" width="26.92578125" bestFit="1" customWidth="1"/>
-    <col min="208" max="208" width="18.78515625" bestFit="1" customWidth="1"/>
-    <col min="209" max="209" width="26.92578125" bestFit="1" customWidth="1"/>
-    <col min="210" max="210" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="26.9140625" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="26.9140625" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="24.4140625" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="26.9140625" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="18.08203125" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="26.9140625" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="26.9140625" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="26.9140625" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="18.08203125" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="26.9140625" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="18.08203125" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="26.9140625" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="26.9140625" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="18.08203125" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="26.9140625" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="18.08203125" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="26.9140625" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="21.4140625" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="26.9140625" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="18.08203125" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="26.9140625" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="18.08203125" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="26.9140625" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="18.08203125" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="26.9140625" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="18.08203125" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="26.9140625" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="185" max="185" width="26.9140625" bestFit="1" customWidth="1"/>
+    <col min="186" max="186" width="18.08203125" bestFit="1" customWidth="1"/>
+    <col min="187" max="187" width="26.9140625" bestFit="1" customWidth="1"/>
+    <col min="188" max="188" width="18.08203125" bestFit="1" customWidth="1"/>
+    <col min="189" max="189" width="26.9140625" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="18.08203125" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="26.9140625" bestFit="1" customWidth="1"/>
+    <col min="192" max="192" width="18.08203125" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="26.9140625" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="25.25" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="26.9140625" bestFit="1" customWidth="1"/>
+    <col min="196" max="196" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="197" max="197" width="26.9140625" bestFit="1" customWidth="1"/>
+    <col min="198" max="198" width="18.08203125" bestFit="1" customWidth="1"/>
+    <col min="199" max="199" width="26.9140625" bestFit="1" customWidth="1"/>
+    <col min="200" max="200" width="18.08203125" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="26.9140625" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="18.08203125" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="26.9140625" bestFit="1" customWidth="1"/>
+    <col min="204" max="204" width="18.58203125" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="26.9140625" bestFit="1" customWidth="1"/>
+    <col min="206" max="206" width="18.08203125" bestFit="1" customWidth="1"/>
+    <col min="207" max="207" width="26.9140625" bestFit="1" customWidth="1"/>
+    <col min="208" max="208" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="209" max="209" width="26.9140625" bestFit="1" customWidth="1"/>
+    <col min="210" max="210" width="23.1640625" bestFit="1" customWidth="1"/>
     <col min="211" max="211" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13888,4 +14137,186 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0876D28-E687-41CF-864D-142BF8C36EDD}">
+  <dimension ref="A2:M10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13">
+      <c r="A2" s="8" t="s">
+        <v>630</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>647</v>
+      </c>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="10"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>607</v>
+      </c>
+      <c r="B4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C4" t="s">
+        <v>628</v>
+      </c>
+      <c r="D4" t="s">
+        <v>629</v>
+      </c>
+      <c r="E4" t="s">
+        <v>631</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>650</v>
+      </c>
+      <c r="H4" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5">
+        <v>101</v>
+      </c>
+      <c r="B5" t="s">
+        <v>632</v>
+      </c>
+      <c r="C5" t="s">
+        <v>638</v>
+      </c>
+      <c r="D5" t="s">
+        <v>646</v>
+      </c>
+      <c r="E5" s="1">
+        <v>25180</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>651</v>
+      </c>
+      <c r="H5" t="str">
+        <f>VLOOKUP(B7,Tabla2[[Apellido]:[Fecha]],3,FALSE)</f>
+        <v>Rep. de Ventas</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6">
+        <v>102</v>
+      </c>
+      <c r="B6" t="s">
+        <v>633</v>
+      </c>
+      <c r="C6" t="s">
+        <v>639</v>
+      </c>
+      <c r="D6" t="s">
+        <v>644</v>
+      </c>
+      <c r="E6" s="1">
+        <v>19133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7">
+        <v>103</v>
+      </c>
+      <c r="B7" t="s">
+        <v>634</v>
+      </c>
+      <c r="C7" t="s">
+        <v>640</v>
+      </c>
+      <c r="D7" t="s">
+        <v>646</v>
+      </c>
+      <c r="E7" s="1">
+        <v>23253</v>
+      </c>
+      <c r="G7" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8">
+        <v>104</v>
+      </c>
+      <c r="B8" t="s">
+        <v>635</v>
+      </c>
+      <c r="C8" t="s">
+        <v>641</v>
+      </c>
+      <c r="D8" t="s">
+        <v>646</v>
+      </c>
+      <c r="E8" s="1">
+        <v>21447</v>
+      </c>
+      <c r="G8" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9">
+        <v>105</v>
+      </c>
+      <c r="B9" t="s">
+        <v>636</v>
+      </c>
+      <c r="C9" t="s">
+        <v>642</v>
+      </c>
+      <c r="D9" t="s">
+        <v>645</v>
+      </c>
+      <c r="E9" s="1">
+        <v>20152</v>
+      </c>
+      <c r="G9" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10">
+        <v>106</v>
+      </c>
+      <c r="B10" t="s">
+        <v>637</v>
+      </c>
+      <c r="C10" t="s">
+        <v>643</v>
+      </c>
+      <c r="D10" t="s">
+        <v>646</v>
+      </c>
+      <c r="E10" s="1">
+        <v>23194</v>
+      </c>
+      <c r="G10" t="s">
+        <v>654</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>